--- a/LabFiles/Introduction to Power Platform/Visits.xlsx
+++ b/LabFiles/Introduction to Power Platform/Visits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7144f5a0ac402b53/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenkins\JPower4\Training\Training Materials\Power-Platform-Administration\LabFiles\Introduction to Power Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{1DEDB6DC-CED5-4D55-89A9-69B9A2CC3656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3088871D-4169-4F23-AAB3-49939B744BCC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D8003-D976-43E7-8251-80AAE295A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38772" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F607E258-516E-4467-81D6-58395A75199E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F607E258-516E-4467-81D6-58395A75199E}"/>
   </bookViews>
   <sheets>
     <sheet name="Visits" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="432">
   <si>
-    <t>actual end</t>
-  </si>
-  <si>
     <t>actual start</t>
   </si>
   <si>
@@ -1331,13 +1328,16 @@
   </si>
   <si>
     <t>Scott Konersmann - Fourth Coffee House - 2022-04-15</t>
+  </si>
+  <si>
+    <t>MActual End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,47 +1686,47 @@
   <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>44691.416666666664</v>
@@ -1735,15 +1735,15 @@
         <v>44691.395833333336</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>44684.666666666664</v>
@@ -1752,15 +1752,15 @@
         <v>44684.625</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>44677.6875</v>
@@ -1769,15 +1769,15 @@
         <v>44677.625</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>44669.708333333336</v>
@@ -1786,15 +1786,15 @@
         <v>44669.666666666664</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>44665.583333333336</v>
@@ -1803,15 +1803,15 @@
         <v>44665.5625</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>44690.770833333336</v>
@@ -1820,15 +1820,15 @@
         <v>44690.729166666664</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>44659.416666666664</v>
@@ -1837,15 +1837,15 @@
         <v>44659.354166666664</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>44684.416666666664</v>
@@ -1854,10 +1854,10 @@
         <v>44684.395833333336</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44656.433333333334</v>
       </c>
@@ -1865,10 +1865,10 @@
         <v>44656.4</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>44656.4375</v>
@@ -1877,15 +1877,15 @@
         <v>44656.395833333336</v>
       </c>
       <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>44680.75</v>
@@ -1894,10 +1894,10 @@
         <v>44680.6875</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44650.677083333336</v>
       </c>
@@ -1905,10 +1905,10 @@
         <v>44650.621527777781</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>44650.666666666664</v>
@@ -1917,15 +1917,15 @@
         <v>44650.625</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>44690.604166666664</v>
@@ -1934,15 +1934,15 @@
         <v>44690.5625</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>44669.479166666664</v>
@@ -1951,15 +1951,15 @@
         <v>44669.416666666664</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>44684.8125</v>
@@ -1968,15 +1968,15 @@
         <v>44684.75</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>44691.479166666664</v>
@@ -1985,10 +1985,10 @@
         <v>44691.458333333336</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44644.378472222219</v>
       </c>
@@ -1996,10 +1996,10 @@
         <v>44644.324305555558</v>
       </c>
       <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>44644.375</v>
@@ -2008,15 +2008,15 @@
         <v>44644.333333333336</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
       </c>
       <c r="E18" s="1">
         <v>44691.5625</v>
@@ -2025,15 +2025,15 @@
         <v>44691.541666666664</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
       </c>
       <c r="E19" s="1">
         <v>44690.708333333336</v>
@@ -2042,15 +2042,15 @@
         <v>44690.6875</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="1">
         <v>44680.666666666664</v>
@@ -2059,15 +2059,15 @@
         <v>44680.604166666664</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
       </c>
       <c r="E21" s="1">
         <v>44690.4375</v>
@@ -2076,15 +2076,15 @@
         <v>44690.416666666664</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
       </c>
       <c r="E22" s="1">
         <v>44691.416666666664</v>
@@ -2093,15 +2093,15 @@
         <v>44691.354166666664</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="1">
         <v>44684.75</v>
@@ -2110,15 +2110,15 @@
         <v>44684.729166666664</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
       </c>
       <c r="E24" s="1">
         <v>44683.458333333336</v>
@@ -2127,15 +2127,15 @@
         <v>44683.4375</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
       </c>
       <c r="E25" s="1">
         <v>44690.6875</v>
@@ -2144,15 +2144,15 @@
         <v>44690.666666666664</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
       </c>
       <c r="E26" s="1">
         <v>44673.6875</v>
@@ -2161,15 +2161,15 @@
         <v>44673.666666666664</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
       </c>
       <c r="E27" s="1">
         <v>44684.520833333336</v>
@@ -2178,15 +2178,15 @@
         <v>44684.458333333336</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
         <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
       </c>
       <c r="E28" s="1">
         <v>44691.479166666664</v>
@@ -2195,15 +2195,15 @@
         <v>44691.416666666664</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
       </c>
       <c r="E29" s="1">
         <v>44684.5</v>
@@ -2212,15 +2212,15 @@
         <v>44684.458333333336</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
         <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
       </c>
       <c r="E30" s="1">
         <v>44666.729166666664</v>
@@ -2229,15 +2229,15 @@
         <v>44666.708333333336</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
       </c>
       <c r="E31" s="1">
         <v>44677.4375</v>
@@ -2246,15 +2246,15 @@
         <v>44677.395833333336</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
         <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
       </c>
       <c r="E32" s="1">
         <v>44683.770833333336</v>
@@ -2263,15 +2263,15 @@
         <v>44683.75</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
         <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
       </c>
       <c r="E33" s="1">
         <v>44690.645833333336</v>
@@ -2280,15 +2280,15 @@
         <v>44690.625</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
         <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
       </c>
       <c r="E34" s="1">
         <v>44683.666666666664</v>
@@ -2297,15 +2297,15 @@
         <v>44683.625</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
         <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
       </c>
       <c r="E35" s="1">
         <v>44691.4375</v>
@@ -2314,15 +2314,15 @@
         <v>44691.395833333336</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
         <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
       </c>
       <c r="E36" s="1">
         <v>44669.625</v>
@@ -2331,15 +2331,15 @@
         <v>44669.583333333336</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
         <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
       </c>
       <c r="E37" s="1">
         <v>44691.583333333336</v>
@@ -2348,15 +2348,15 @@
         <v>44691.520833333336</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
         <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>82</v>
       </c>
       <c r="E38" s="1">
         <v>44691.520833333336</v>
@@ -2365,15 +2365,15 @@
         <v>44691.479166666664</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
         <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
       </c>
       <c r="E39" s="1">
         <v>44684.770833333336</v>
@@ -2382,15 +2382,15 @@
         <v>44684.708333333336</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
         <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
       </c>
       <c r="E40" s="1">
         <v>44676.666666666664</v>
@@ -2399,15 +2399,15 @@
         <v>44676.604166666664</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
         <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>88</v>
       </c>
       <c r="E41" s="1">
         <v>44680.604166666664</v>
@@ -2416,15 +2416,15 @@
         <v>44680.541666666664</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
         <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>90</v>
       </c>
       <c r="E42" s="1">
         <v>44677.520833333336</v>
@@ -2433,15 +2433,15 @@
         <v>44677.458333333336</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="1">
         <v>44690.541666666664</v>
@@ -2450,15 +2450,15 @@
         <v>44690.479166666664</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1">
         <v>44691.604166666664</v>
@@ -2467,15 +2467,15 @@
         <v>44691.583333333336</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
         <v>93</v>
-      </c>
-      <c r="D45" t="s">
-        <v>94</v>
       </c>
       <c r="E45" s="1">
         <v>44690.375</v>
@@ -2484,15 +2484,15 @@
         <v>44690.354166666664</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
         <v>95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>96</v>
       </c>
       <c r="E46" s="1">
         <v>44691.666666666664</v>
@@ -2501,15 +2501,15 @@
         <v>44691.645833333336</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
         <v>97</v>
-      </c>
-      <c r="D47" t="s">
-        <v>98</v>
       </c>
       <c r="E47" s="1">
         <v>44691.8125</v>
@@ -2518,15 +2518,15 @@
         <v>44691.75</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
         <v>99</v>
-      </c>
-      <c r="D48" t="s">
-        <v>100</v>
       </c>
       <c r="E48" s="1">
         <v>44670.666666666664</v>
@@ -2535,15 +2535,15 @@
         <v>44670.625</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
         <v>101</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
       </c>
       <c r="E49" s="1">
         <v>44680.75</v>
@@ -2552,15 +2552,15 @@
         <v>44680.6875</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
         <v>103</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
       </c>
       <c r="E50" s="1">
         <v>44691.729166666664</v>
@@ -2569,15 +2569,15 @@
         <v>44691.666666666664</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
         <v>105</v>
-      </c>
-      <c r="D51" t="s">
-        <v>106</v>
       </c>
       <c r="E51" s="1">
         <v>44683.5</v>
@@ -2586,15 +2586,15 @@
         <v>44683.458333333336</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
         <v>107</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
       </c>
       <c r="E52" s="1">
         <v>44680.729166666664</v>
@@ -2603,15 +2603,15 @@
         <v>44680.666666666664</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
         <v>109</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
       </c>
       <c r="E53" s="1">
         <v>44676.479166666664</v>
@@ -2620,15 +2620,15 @@
         <v>44676.416666666664</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
         <v>111</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
       </c>
       <c r="E54" s="1">
         <v>44684.604166666664</v>
@@ -2637,15 +2637,15 @@
         <v>44684.583333333336</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
         <v>113</v>
-      </c>
-      <c r="D55" t="s">
-        <v>114</v>
       </c>
       <c r="E55" s="1">
         <v>44690.75</v>
@@ -2654,15 +2654,15 @@
         <v>44690.6875</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
         <v>115</v>
-      </c>
-      <c r="D56" t="s">
-        <v>116</v>
       </c>
       <c r="E56" s="1">
         <v>44673.708333333336</v>
@@ -2671,15 +2671,15 @@
         <v>44673.645833333336</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
         <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>118</v>
       </c>
       <c r="E57" s="1">
         <v>44687.458333333336</v>
@@ -2688,15 +2688,15 @@
         <v>44687.416666666664</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
         <v>119</v>
-      </c>
-      <c r="D58" t="s">
-        <v>120</v>
       </c>
       <c r="E58" s="1">
         <v>44683.729166666664</v>
@@ -2705,15 +2705,15 @@
         <v>44683.708333333336</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
         <v>121</v>
-      </c>
-      <c r="D59" t="s">
-        <v>122</v>
       </c>
       <c r="E59" s="1">
         <v>44669.5</v>
@@ -2722,15 +2722,15 @@
         <v>44669.479166666664</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
         <v>123</v>
-      </c>
-      <c r="D60" t="s">
-        <v>124</v>
       </c>
       <c r="E60" s="1">
         <v>44683.625</v>
@@ -2739,15 +2739,15 @@
         <v>44683.604166666664</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
         <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>126</v>
       </c>
       <c r="E61" s="1">
         <v>44683.4375</v>
@@ -2756,15 +2756,15 @@
         <v>44683.416666666664</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" t="s">
         <v>127</v>
-      </c>
-      <c r="D62" t="s">
-        <v>128</v>
       </c>
       <c r="E62" s="1">
         <v>44670.4375</v>
@@ -2773,15 +2773,15 @@
         <v>44670.416666666664</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" t="s">
         <v>129</v>
-      </c>
-      <c r="D63" t="s">
-        <v>130</v>
       </c>
       <c r="E63" s="1">
         <v>44669.458333333336</v>
@@ -2790,15 +2790,15 @@
         <v>44669.395833333336</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" s="1">
         <v>44680.666666666664</v>
@@ -2807,15 +2807,15 @@
         <v>44680.604166666664</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E65" s="1">
         <v>44683.520833333336</v>
@@ -2824,15 +2824,15 @@
         <v>44683.479166666664</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" t="s">
         <v>133</v>
-      </c>
-      <c r="D66" t="s">
-        <v>134</v>
       </c>
       <c r="E66" s="1">
         <v>44670.791666666664</v>
@@ -2841,15 +2841,15 @@
         <v>44670.75</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
         <v>135</v>
-      </c>
-      <c r="D67" t="s">
-        <v>136</v>
       </c>
       <c r="E67" s="1">
         <v>44683.8125</v>
@@ -2858,15 +2858,15 @@
         <v>44683.75</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" t="s">
         <v>137</v>
-      </c>
-      <c r="D68" t="s">
-        <v>138</v>
       </c>
       <c r="E68" s="1">
         <v>44677.625</v>
@@ -2875,15 +2875,15 @@
         <v>44677.604166666664</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" t="s">
         <v>139</v>
-      </c>
-      <c r="D69" t="s">
-        <v>140</v>
       </c>
       <c r="E69" s="1">
         <v>44669.8125</v>
@@ -2892,15 +2892,15 @@
         <v>44669.75</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
         <v>141</v>
-      </c>
-      <c r="D70" t="s">
-        <v>142</v>
       </c>
       <c r="E70" s="1">
         <v>44687.604166666664</v>
@@ -2909,15 +2909,15 @@
         <v>44687.5625</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" t="s">
         <v>143</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
       </c>
       <c r="E71" s="1">
         <v>44664.5</v>
@@ -2926,15 +2926,15 @@
         <v>44664.458333333336</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
         <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>146</v>
       </c>
       <c r="E72" s="1">
         <v>44676.520833333336</v>
@@ -2943,15 +2943,15 @@
         <v>44676.5</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
         <v>147</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
       </c>
       <c r="E73" s="1">
         <v>44680.395833333336</v>
@@ -2960,15 +2960,15 @@
         <v>44680.354166666664</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" t="s">
         <v>149</v>
-      </c>
-      <c r="D74" t="s">
-        <v>150</v>
       </c>
       <c r="E74" s="1">
         <v>44687.666666666664</v>
@@ -2977,15 +2977,15 @@
         <v>44687.604166666664</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
         <v>151</v>
-      </c>
-      <c r="D75" t="s">
-        <v>152</v>
       </c>
       <c r="E75" s="1">
         <v>44669.416666666664</v>
@@ -2994,15 +2994,15 @@
         <v>44669.354166666664</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" t="s">
         <v>153</v>
-      </c>
-      <c r="D76" t="s">
-        <v>154</v>
       </c>
       <c r="E76" s="1">
         <v>44665.375</v>
@@ -3011,15 +3011,15 @@
         <v>44665.354166666664</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" t="s">
         <v>155</v>
-      </c>
-      <c r="D77" t="s">
-        <v>156</v>
       </c>
       <c r="E77" s="1">
         <v>44676.4375</v>
@@ -3028,15 +3028,15 @@
         <v>44676.375</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" t="s">
         <v>157</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
       </c>
       <c r="E78" s="1">
         <v>44673.375</v>
@@ -3045,15 +3045,15 @@
         <v>44673.354166666664</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" s="1">
         <v>44673.770833333336</v>
@@ -3062,15 +3062,15 @@
         <v>44673.75</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" t="s">
         <v>160</v>
-      </c>
-      <c r="D80" t="s">
-        <v>161</v>
       </c>
       <c r="E80" s="1">
         <v>44666.416666666664</v>
@@ -3079,15 +3079,15 @@
         <v>44666.354166666664</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
         <v>162</v>
-      </c>
-      <c r="D81" t="s">
-        <v>163</v>
       </c>
       <c r="E81" s="1">
         <v>44680.4375</v>
@@ -3096,15 +3096,15 @@
         <v>44680.416666666664</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" t="s">
         <v>164</v>
-      </c>
-      <c r="D82" t="s">
-        <v>165</v>
       </c>
       <c r="E82" s="1">
         <v>44665.791666666664</v>
@@ -3113,15 +3113,15 @@
         <v>44665.729166666664</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
         <v>166</v>
-      </c>
-      <c r="D83" t="s">
-        <v>167</v>
       </c>
       <c r="E83" s="1">
         <v>44666.708333333336</v>
@@ -3130,15 +3130,15 @@
         <v>44666.666666666664</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
         <v>168</v>
-      </c>
-      <c r="D84" t="s">
-        <v>169</v>
       </c>
       <c r="E84" s="1">
         <v>44676.6875</v>
@@ -3147,15 +3147,15 @@
         <v>44676.625</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
         <v>170</v>
-      </c>
-      <c r="D85" t="s">
-        <v>171</v>
       </c>
       <c r="E85" s="1">
         <v>44665.770833333336</v>
@@ -3164,15 +3164,15 @@
         <v>44665.729166666664</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
         <v>172</v>
-      </c>
-      <c r="D86" t="s">
-        <v>173</v>
       </c>
       <c r="E86" s="1">
         <v>44677.791666666664</v>
@@ -3181,15 +3181,15 @@
         <v>44677.75</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" t="s">
         <v>174</v>
-      </c>
-      <c r="D87" t="s">
-        <v>175</v>
       </c>
       <c r="E87" s="1">
         <v>44680.520833333336</v>
@@ -3198,15 +3198,15 @@
         <v>44680.479166666664</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" t="s">
         <v>176</v>
-      </c>
-      <c r="D88" t="s">
-        <v>177</v>
       </c>
       <c r="E88" s="1">
         <v>44673.520833333336</v>
@@ -3215,15 +3215,15 @@
         <v>44673.479166666664</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" t="s">
         <v>178</v>
-      </c>
-      <c r="D89" t="s">
-        <v>179</v>
       </c>
       <c r="E89" s="1">
         <v>44670.729166666664</v>
@@ -3232,15 +3232,15 @@
         <v>44670.6875</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" t="s">
         <v>180</v>
-      </c>
-      <c r="D90" t="s">
-        <v>181</v>
       </c>
       <c r="E90" s="1">
         <v>44669.645833333336</v>
@@ -3249,15 +3249,15 @@
         <v>44669.604166666664</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" t="s">
         <v>182</v>
-      </c>
-      <c r="D91" t="s">
-        <v>183</v>
       </c>
       <c r="E91" s="1">
         <v>44663.625</v>
@@ -3266,15 +3266,15 @@
         <v>44663.5625</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" t="s">
         <v>184</v>
-      </c>
-      <c r="D92" t="s">
-        <v>185</v>
       </c>
       <c r="E92" s="1">
         <v>44670.729166666664</v>
@@ -3283,15 +3283,15 @@
         <v>44670.708333333336</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
         <v>186</v>
-      </c>
-      <c r="D93" t="s">
-        <v>187</v>
       </c>
       <c r="E93" s="1">
         <v>44669.666666666664</v>
@@ -3300,15 +3300,15 @@
         <v>44669.604166666664</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" t="s">
         <v>188</v>
-      </c>
-      <c r="D94" t="s">
-        <v>189</v>
       </c>
       <c r="E94" s="1">
         <v>44670.666666666664</v>
@@ -3317,15 +3317,15 @@
         <v>44670.645833333336</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" t="s">
         <v>190</v>
-      </c>
-      <c r="D95" t="s">
-        <v>191</v>
       </c>
       <c r="E95" s="1">
         <v>44663.6875</v>
@@ -3334,15 +3334,15 @@
         <v>44663.645833333336</v>
       </c>
       <c r="G95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" t="s">
         <v>192</v>
-      </c>
-      <c r="D96" t="s">
-        <v>193</v>
       </c>
       <c r="E96" s="1">
         <v>44663.708333333336</v>
@@ -3351,15 +3351,15 @@
         <v>44663.666666666664</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s">
         <v>194</v>
-      </c>
-      <c r="D97" t="s">
-        <v>195</v>
       </c>
       <c r="E97" s="1">
         <v>44673.583333333336</v>
@@ -3368,15 +3368,15 @@
         <v>44673.5625</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
         <v>196</v>
-      </c>
-      <c r="D98" t="s">
-        <v>197</v>
       </c>
       <c r="E98" s="1">
         <v>44659.625</v>
@@ -3385,15 +3385,15 @@
         <v>44659.583333333336</v>
       </c>
       <c r="G98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" t="s">
         <v>198</v>
-      </c>
-      <c r="D99" t="s">
-        <v>199</v>
       </c>
       <c r="E99" s="1">
         <v>44662.583333333336</v>
@@ -3402,15 +3402,15 @@
         <v>44662.520833333336</v>
       </c>
       <c r="G99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" t="s">
         <v>200</v>
-      </c>
-      <c r="D100" t="s">
-        <v>201</v>
       </c>
       <c r="E100" s="1">
         <v>44664.541666666664</v>
@@ -3419,15 +3419,15 @@
         <v>44664.520833333336</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" t="s">
         <v>202</v>
-      </c>
-      <c r="D101" t="s">
-        <v>203</v>
       </c>
       <c r="E101" s="1">
         <v>44673.666666666664</v>
@@ -3436,15 +3436,15 @@
         <v>44673.645833333336</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" t="s">
         <v>204</v>
-      </c>
-      <c r="D102" t="s">
-        <v>205</v>
       </c>
       <c r="E102" s="1">
         <v>44659.541666666664</v>
@@ -3453,15 +3453,15 @@
         <v>44659.5</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
         <v>206</v>
-      </c>
-      <c r="D103" t="s">
-        <v>207</v>
       </c>
       <c r="E103" s="1">
         <v>44670.708333333336</v>
@@ -3470,15 +3470,15 @@
         <v>44670.645833333336</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" t="s">
         <v>208</v>
-      </c>
-      <c r="D104" t="s">
-        <v>209</v>
       </c>
       <c r="E104" s="1">
         <v>44659.75</v>
@@ -3487,15 +3487,15 @@
         <v>44659.6875</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" t="s">
         <v>210</v>
-      </c>
-      <c r="D105" t="s">
-        <v>211</v>
       </c>
       <c r="E105" s="1">
         <v>44665.479166666664</v>
@@ -3504,15 +3504,15 @@
         <v>44665.458333333336</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" t="s">
         <v>212</v>
-      </c>
-      <c r="D106" t="s">
-        <v>213</v>
       </c>
       <c r="E106" s="1">
         <v>44657.4375</v>
@@ -3521,15 +3521,15 @@
         <v>44657.375</v>
       </c>
       <c r="G106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
         <v>214</v>
-      </c>
-      <c r="D107" t="s">
-        <v>215</v>
       </c>
       <c r="E107" s="1">
         <v>44670.791666666664</v>
@@ -3538,15 +3538,15 @@
         <v>44670.75</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E108" s="1">
         <v>44663.541666666664</v>
@@ -3555,15 +3555,15 @@
         <v>44663.5</v>
       </c>
       <c r="G108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D109" t="s">
         <v>217</v>
-      </c>
-      <c r="D109" t="s">
-        <v>218</v>
       </c>
       <c r="E109" s="1">
         <v>44663.770833333336</v>
@@ -3572,15 +3572,15 @@
         <v>44663.729166666664</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" t="s">
         <v>219</v>
-      </c>
-      <c r="D110" t="s">
-        <v>220</v>
       </c>
       <c r="E110" s="1">
         <v>44670.479166666664</v>
@@ -3589,10 +3589,10 @@
         <v>44670.458333333336</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44637.453472222223</v>
       </c>
@@ -3600,10 +3600,10 @@
         <v>44637.427083333336</v>
       </c>
       <c r="C111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" t="s">
         <v>221</v>
-      </c>
-      <c r="D111" t="s">
-        <v>222</v>
       </c>
       <c r="E111" s="1">
         <v>44637.458333333336</v>
@@ -3612,10 +3612,10 @@
         <v>44637.416666666664</v>
       </c>
       <c r="G111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44656.434027777781</v>
       </c>
@@ -3623,10 +3623,10 @@
         <v>44656.388888888891</v>
       </c>
       <c r="C112" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" t="s">
         <v>223</v>
-      </c>
-      <c r="D112" t="s">
-        <v>224</v>
       </c>
       <c r="E112" s="1">
         <v>44656.4375</v>
@@ -3635,15 +3635,15 @@
         <v>44656.395833333336</v>
       </c>
       <c r="G112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
+        <v>224</v>
+      </c>
+      <c r="D113" t="s">
         <v>225</v>
-      </c>
-      <c r="D113" t="s">
-        <v>226</v>
       </c>
       <c r="E113" s="1">
         <v>44664.541666666664</v>
@@ -3652,15 +3652,15 @@
         <v>44664.520833333336</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" t="s">
         <v>227</v>
-      </c>
-      <c r="D114" t="s">
-        <v>228</v>
       </c>
       <c r="E114" s="1">
         <v>44657.4375</v>
@@ -3669,15 +3669,15 @@
         <v>44657.416666666664</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" t="s">
         <v>229</v>
-      </c>
-      <c r="D115" t="s">
-        <v>230</v>
       </c>
       <c r="E115" s="1">
         <v>44669.375</v>
@@ -3686,15 +3686,15 @@
         <v>44669.333333333336</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" t="s">
         <v>231</v>
-      </c>
-      <c r="D116" t="s">
-        <v>232</v>
       </c>
       <c r="E116" s="1">
         <v>44664.729166666664</v>
@@ -3703,15 +3703,15 @@
         <v>44664.708333333336</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" t="s">
         <v>233</v>
-      </c>
-      <c r="D117" t="s">
-        <v>234</v>
       </c>
       <c r="E117" s="1">
         <v>44663.645833333336</v>
@@ -3720,15 +3720,15 @@
         <v>44663.625</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" t="s">
         <v>235</v>
-      </c>
-      <c r="D118" t="s">
-        <v>236</v>
       </c>
       <c r="E118" s="1">
         <v>44669.395833333336</v>
@@ -3737,15 +3737,15 @@
         <v>44669.354166666664</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" t="s">
         <v>237</v>
-      </c>
-      <c r="D119" t="s">
-        <v>238</v>
       </c>
       <c r="E119" s="1">
         <v>44657.541666666664</v>
@@ -3754,15 +3754,15 @@
         <v>44657.482638888891</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
         <v>239</v>
-      </c>
-      <c r="D120" t="s">
-        <v>240</v>
       </c>
       <c r="E120" s="1">
         <v>44658.395833333336</v>
@@ -3771,10 +3771,10 @@
         <v>44658.354166666664</v>
       </c>
       <c r="G120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44651.395833333336</v>
       </c>
@@ -3782,10 +3782,10 @@
         <v>44651.36041666667</v>
       </c>
       <c r="C121" t="s">
+        <v>240</v>
+      </c>
+      <c r="D121" t="s">
         <v>241</v>
-      </c>
-      <c r="D121" t="s">
-        <v>242</v>
       </c>
       <c r="E121" s="1">
         <v>44651.395833333336</v>
@@ -3794,15 +3794,15 @@
         <v>44651.354166666664</v>
       </c>
       <c r="G121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
+        <v>242</v>
+      </c>
+      <c r="D122" t="s">
         <v>243</v>
-      </c>
-      <c r="D122" t="s">
-        <v>244</v>
       </c>
       <c r="E122" s="1">
         <v>44664.541666666664</v>
@@ -3811,15 +3811,15 @@
         <v>44664.520833333336</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
         <v>245</v>
-      </c>
-      <c r="D123" t="s">
-        <v>246</v>
       </c>
       <c r="E123" s="1">
         <v>44663.416666666664</v>
@@ -3828,15 +3828,15 @@
         <v>44663.375</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" t="s">
         <v>247</v>
-      </c>
-      <c r="D124" t="s">
-        <v>248</v>
       </c>
       <c r="E124" s="1">
         <v>44662.791666666664</v>
@@ -3845,15 +3845,15 @@
         <v>44662.729166666664</v>
       </c>
       <c r="G124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" t="s">
         <v>249</v>
-      </c>
-      <c r="D125" t="s">
-        <v>250</v>
       </c>
       <c r="E125" s="1">
         <v>44664.4375</v>
@@ -3862,15 +3862,15 @@
         <v>44664.395833333336</v>
       </c>
       <c r="G125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" t="s">
         <v>251</v>
-      </c>
-      <c r="D126" t="s">
-        <v>252</v>
       </c>
       <c r="E126" s="1">
         <v>44659.791666666664</v>
@@ -3879,15 +3879,15 @@
         <v>44659.729166666664</v>
       </c>
       <c r="G126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" t="s">
         <v>253</v>
-      </c>
-      <c r="D127" t="s">
-        <v>254</v>
       </c>
       <c r="E127" s="1">
         <v>44663.4375</v>
@@ -3896,10 +3896,10 @@
         <v>44663.416666666664</v>
       </c>
       <c r="G127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44656.37222222222</v>
       </c>
@@ -3907,10 +3907,10 @@
         <v>44656.323611111111</v>
       </c>
       <c r="C128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D128" t="s">
         <v>255</v>
-      </c>
-      <c r="D128" t="s">
-        <v>256</v>
       </c>
       <c r="E128" s="1">
         <v>44656.375</v>
@@ -3919,15 +3919,15 @@
         <v>44656.333333333336</v>
       </c>
       <c r="G128" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" t="s">
         <v>257</v>
-      </c>
-      <c r="D129" t="s">
-        <v>258</v>
       </c>
       <c r="E129" s="1">
         <v>44657.6875</v>
@@ -3936,10 +3936,10 @@
         <v>44657.666666666664</v>
       </c>
       <c r="G129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44656.443749999999</v>
       </c>
@@ -3947,10 +3947,10 @@
         <v>44656.392361111109</v>
       </c>
       <c r="C130" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" t="s">
         <v>259</v>
-      </c>
-      <c r="D130" t="s">
-        <v>260</v>
       </c>
       <c r="E130" s="1">
         <v>44656.4375</v>
@@ -3959,10 +3959,10 @@
         <v>44656.395833333336</v>
       </c>
       <c r="G130" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44656.470833333333</v>
       </c>
@@ -3970,10 +3970,10 @@
         <v>44656.468055555553</v>
       </c>
       <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" t="s">
         <v>261</v>
-      </c>
-      <c r="D131" t="s">
-        <v>262</v>
       </c>
       <c r="E131" s="1">
         <v>44656.479166666664</v>
@@ -3982,10 +3982,10 @@
         <v>44656.458333333336</v>
       </c>
       <c r="G131" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44651.45</v>
       </c>
@@ -3993,10 +3993,10 @@
         <v>44651.387499999997</v>
       </c>
       <c r="C132" t="s">
+        <v>262</v>
+      </c>
+      <c r="D132" t="s">
         <v>263</v>
-      </c>
-      <c r="D132" t="s">
-        <v>264</v>
       </c>
       <c r="E132" s="1">
         <v>44651.458333333336</v>
@@ -4005,15 +4005,15 @@
         <v>44651.395833333336</v>
       </c>
       <c r="G132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" t="s">
         <v>265</v>
-      </c>
-      <c r="D133" t="s">
-        <v>266</v>
       </c>
       <c r="E133" s="1">
         <v>44663.5</v>
@@ -4022,10 +4022,10 @@
         <v>44663.479166666664</v>
       </c>
       <c r="G133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44655.479166666664</v>
       </c>
@@ -4033,10 +4033,10 @@
         <v>44655.417361111111</v>
       </c>
       <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" t="s">
         <v>267</v>
-      </c>
-      <c r="D134" t="s">
-        <v>268</v>
       </c>
       <c r="E134" s="1">
         <v>44655.479166666664</v>
@@ -4045,15 +4045,15 @@
         <v>44655.416666666664</v>
       </c>
       <c r="G134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" t="s">
         <v>269</v>
-      </c>
-      <c r="D135" t="s">
-        <v>270</v>
       </c>
       <c r="E135" s="1">
         <v>44657.395833333336</v>
@@ -4062,10 +4062,10 @@
         <v>44657.375</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44650.371527777781</v>
       </c>
@@ -4073,10 +4073,10 @@
         <v>44650.341666666667</v>
       </c>
       <c r="C136" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" t="s">
         <v>271</v>
-      </c>
-      <c r="D136" t="s">
-        <v>272</v>
       </c>
       <c r="E136" s="1">
         <v>44650.375</v>
@@ -4085,15 +4085,15 @@
         <v>44650.333333333336</v>
       </c>
       <c r="G136" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" t="s">
         <v>273</v>
-      </c>
-      <c r="D137" t="s">
-        <v>274</v>
       </c>
       <c r="E137" s="1">
         <v>44658.395833333336</v>
@@ -4102,15 +4102,15 @@
         <v>44658.375</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" t="s">
         <v>275</v>
-      </c>
-      <c r="D138" t="s">
-        <v>276</v>
       </c>
       <c r="E138" s="1">
         <v>44657.458333333336</v>
@@ -4119,10 +4119,10 @@
         <v>44657.395833333336</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44656.436111111114</v>
       </c>
@@ -4130,10 +4130,10 @@
         <v>44656.376388888886</v>
       </c>
       <c r="C139" t="s">
+        <v>276</v>
+      </c>
+      <c r="D139" t="s">
         <v>277</v>
-      </c>
-      <c r="D139" t="s">
-        <v>278</v>
       </c>
       <c r="E139" s="1">
         <v>44656.4375</v>
@@ -4142,15 +4142,15 @@
         <v>44656.375</v>
       </c>
       <c r="G139" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" t="s">
         <v>279</v>
-      </c>
-      <c r="D140" t="s">
-        <v>280</v>
       </c>
       <c r="E140" s="1">
         <v>44658.479166666664</v>
@@ -4159,15 +4159,15 @@
         <v>44658.4375</v>
       </c>
       <c r="G140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
+        <v>280</v>
+      </c>
+      <c r="D141" t="s">
         <v>281</v>
-      </c>
-      <c r="D141" t="s">
-        <v>282</v>
       </c>
       <c r="E141" s="1">
         <v>44659.625</v>
@@ -4176,15 +4176,15 @@
         <v>44659.604166666664</v>
       </c>
       <c r="G141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
+        <v>282</v>
+      </c>
+      <c r="D142" t="s">
         <v>283</v>
-      </c>
-      <c r="D142" t="s">
-        <v>284</v>
       </c>
       <c r="E142" s="1">
         <v>44659.729166666664</v>
@@ -4193,15 +4193,15 @@
         <v>44659.6875</v>
       </c>
       <c r="G142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
+        <v>284</v>
+      </c>
+      <c r="D143" t="s">
         <v>285</v>
-      </c>
-      <c r="D143" t="s">
-        <v>286</v>
       </c>
       <c r="E143" s="1">
         <v>44658.75</v>
@@ -4210,10 +4210,10 @@
         <v>44658.729166666664</v>
       </c>
       <c r="G143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44656.71597222222</v>
       </c>
@@ -4221,10 +4221,10 @@
         <v>44656.649305555555</v>
       </c>
       <c r="C144" t="s">
+        <v>286</v>
+      </c>
+      <c r="D144" t="s">
         <v>287</v>
-      </c>
-      <c r="D144" t="s">
-        <v>288</v>
       </c>
       <c r="E144" s="1">
         <v>44656.708333333336</v>
@@ -4233,10 +4233,10 @@
         <v>44656.645833333336</v>
       </c>
       <c r="G144" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44650.487500000003</v>
       </c>
@@ -4244,10 +4244,10 @@
         <v>44650.407638888886</v>
       </c>
       <c r="C145" t="s">
+        <v>288</v>
+      </c>
+      <c r="D145" t="s">
         <v>289</v>
-      </c>
-      <c r="D145" t="s">
-        <v>290</v>
       </c>
       <c r="E145" s="1">
         <v>44650.479166666664</v>
@@ -4256,15 +4256,15 @@
         <v>44650.416666666664</v>
       </c>
       <c r="G145" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
+        <v>290</v>
+      </c>
+      <c r="D146" t="s">
         <v>291</v>
-      </c>
-      <c r="D146" t="s">
-        <v>292</v>
       </c>
       <c r="E146" s="1">
         <v>44657.354166666664</v>
@@ -4273,10 +4273,10 @@
         <v>44657.333333333336</v>
       </c>
       <c r="G146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44652.677777777775</v>
       </c>
@@ -4284,10 +4284,10 @@
         <v>44652.648611111108</v>
       </c>
       <c r="C147" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" t="s">
         <v>293</v>
-      </c>
-      <c r="D147" t="s">
-        <v>294</v>
       </c>
       <c r="E147" s="1">
         <v>44652.6875</v>
@@ -4296,10 +4296,10 @@
         <v>44652.645833333336</v>
       </c>
       <c r="G147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44656.62777777778</v>
       </c>
@@ -4307,10 +4307,10 @@
         <v>44656.594444444447</v>
       </c>
       <c r="C148" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" t="s">
         <v>295</v>
-      </c>
-      <c r="D148" t="s">
-        <v>296</v>
       </c>
       <c r="E148" s="1">
         <v>44656.625</v>
@@ -4319,10 +4319,10 @@
         <v>44656.604166666664</v>
       </c>
       <c r="G148" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44651.40625</v>
       </c>
@@ -4330,10 +4330,10 @@
         <v>44651.372916666667</v>
       </c>
       <c r="C149" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" t="s">
         <v>297</v>
-      </c>
-      <c r="D149" t="s">
-        <v>298</v>
       </c>
       <c r="E149" s="1">
         <v>44651.416666666664</v>
@@ -4342,10 +4342,10 @@
         <v>44651.375</v>
       </c>
       <c r="G149" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44650.49722222222</v>
       </c>
@@ -4353,10 +4353,10 @@
         <v>44650.432638888888</v>
       </c>
       <c r="C150" t="s">
+        <v>298</v>
+      </c>
+      <c r="D150" t="s">
         <v>299</v>
-      </c>
-      <c r="D150" t="s">
-        <v>300</v>
       </c>
       <c r="E150" s="1">
         <v>44650.5</v>
@@ -4365,10 +4365,10 @@
         <v>44650.4375</v>
       </c>
       <c r="G150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44655.513888888891</v>
       </c>
@@ -4376,10 +4376,10 @@
         <v>44655.464583333334</v>
       </c>
       <c r="C151" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" t="s">
         <v>301</v>
-      </c>
-      <c r="D151" t="s">
-        <v>302</v>
       </c>
       <c r="E151" s="1">
         <v>44655.520833333336</v>
@@ -4388,10 +4388,10 @@
         <v>44655.458333333336</v>
       </c>
       <c r="G151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44649.469444444447</v>
       </c>
@@ -4399,10 +4399,10 @@
         <v>44649.462500000001</v>
       </c>
       <c r="C152" t="s">
+        <v>302</v>
+      </c>
+      <c r="D152" t="s">
         <v>303</v>
-      </c>
-      <c r="D152" t="s">
-        <v>304</v>
       </c>
       <c r="E152" s="1">
         <v>44649.479166666664</v>
@@ -4411,10 +4411,10 @@
         <v>44649.458333333336</v>
       </c>
       <c r="G152" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44649.366666666669</v>
       </c>
@@ -4422,10 +4422,10 @@
         <v>44649.357638888891</v>
       </c>
       <c r="C153" t="s">
+        <v>304</v>
+      </c>
+      <c r="D153" t="s">
         <v>305</v>
-      </c>
-      <c r="D153" t="s">
-        <v>306</v>
       </c>
       <c r="E153" s="1">
         <v>44649.375</v>
@@ -4434,10 +4434,10 @@
         <v>44649.354166666664</v>
       </c>
       <c r="G153" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44656.466666666667</v>
       </c>
@@ -4445,10 +4445,10 @@
         <v>44656.433333333334</v>
       </c>
       <c r="C154" t="s">
+        <v>306</v>
+      </c>
+      <c r="D154" t="s">
         <v>307</v>
-      </c>
-      <c r="D154" t="s">
-        <v>308</v>
       </c>
       <c r="E154" s="1">
         <v>44656.458333333336</v>
@@ -4457,10 +4457,10 @@
         <v>44656.4375</v>
       </c>
       <c r="G154" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44655.552083333336</v>
       </c>
@@ -4468,10 +4468,10 @@
         <v>44655.513194444444</v>
       </c>
       <c r="C155" t="s">
+        <v>308</v>
+      </c>
+      <c r="D155" t="s">
         <v>309</v>
-      </c>
-      <c r="D155" t="s">
-        <v>310</v>
       </c>
       <c r="E155" s="1">
         <v>44655.5625</v>
@@ -4480,10 +4480,10 @@
         <v>44655.520833333336</v>
       </c>
       <c r="G155" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44650.584027777775</v>
       </c>
@@ -4491,10 +4491,10 @@
         <v>44650.515277777777</v>
       </c>
       <c r="C156" t="s">
+        <v>310</v>
+      </c>
+      <c r="D156" t="s">
         <v>311</v>
-      </c>
-      <c r="D156" t="s">
-        <v>312</v>
       </c>
       <c r="E156" s="1">
         <v>44650.583333333336</v>
@@ -4503,10 +4503,10 @@
         <v>44650.520833333336</v>
       </c>
       <c r="G156" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44645.702777777777</v>
       </c>
@@ -4514,10 +4514,10 @@
         <v>44645.650694444441</v>
       </c>
       <c r="C157" t="s">
+        <v>312</v>
+      </c>
+      <c r="D157" t="s">
         <v>313</v>
-      </c>
-      <c r="D157" t="s">
-        <v>314</v>
       </c>
       <c r="E157" s="1">
         <v>44645.708333333336</v>
@@ -4526,10 +4526,10 @@
         <v>44645.645833333336</v>
       </c>
       <c r="G157" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44655.453472222223</v>
       </c>
@@ -4537,10 +4537,10 @@
         <v>44655.429166666669</v>
       </c>
       <c r="C158" t="s">
+        <v>314</v>
+      </c>
+      <c r="D158" t="s">
         <v>315</v>
-      </c>
-      <c r="D158" t="s">
-        <v>316</v>
       </c>
       <c r="E158" s="1">
         <v>44655.458333333336</v>
@@ -4549,10 +4549,10 @@
         <v>44655.4375</v>
       </c>
       <c r="G158" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44649.682638888888</v>
       </c>
@@ -4560,10 +4560,10 @@
         <v>44649.64166666667</v>
       </c>
       <c r="C159" t="s">
+        <v>316</v>
+      </c>
+      <c r="D159" t="s">
         <v>317</v>
-      </c>
-      <c r="D159" t="s">
-        <v>318</v>
       </c>
       <c r="E159" s="1">
         <v>44649.6875</v>
@@ -4572,10 +4572,10 @@
         <v>44649.645833333336</v>
       </c>
       <c r="G159" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44648.706250000003</v>
       </c>
@@ -4583,10 +4583,10 @@
         <v>44648.640277777777</v>
       </c>
       <c r="C160" t="s">
+        <v>318</v>
+      </c>
+      <c r="D160" t="s">
         <v>319</v>
-      </c>
-      <c r="D160" t="s">
-        <v>320</v>
       </c>
       <c r="E160" s="1">
         <v>44648.708333333336</v>
@@ -4595,10 +4595,10 @@
         <v>44648.645833333336</v>
       </c>
       <c r="G160" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44650.750694444447</v>
       </c>
@@ -4606,10 +4606,10 @@
         <v>44650.72152777778</v>
       </c>
       <c r="C161" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" t="s">
         <v>321</v>
-      </c>
-      <c r="D161" t="s">
-        <v>322</v>
       </c>
       <c r="E161" s="1">
         <v>44650.75</v>
@@ -4618,10 +4618,10 @@
         <v>44650.729166666664</v>
       </c>
       <c r="G161" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44655.6875</v>
       </c>
@@ -4629,10 +4629,10 @@
         <v>44655.618750000001</v>
       </c>
       <c r="C162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D162" t="s">
         <v>323</v>
-      </c>
-      <c r="D162" t="s">
-        <v>324</v>
       </c>
       <c r="E162" s="1">
         <v>44655.6875</v>
@@ -4641,10 +4641,10 @@
         <v>44655.625</v>
       </c>
       <c r="G162" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44649.662499999999</v>
       </c>
@@ -4652,10 +4652,10 @@
         <v>44649.595833333333</v>
       </c>
       <c r="C163" t="s">
+        <v>324</v>
+      </c>
+      <c r="D163" t="s">
         <v>325</v>
-      </c>
-      <c r="D163" t="s">
-        <v>326</v>
       </c>
       <c r="E163" s="1">
         <v>44649.666666666664</v>
@@ -4664,10 +4664,10 @@
         <v>44649.604166666664</v>
       </c>
       <c r="G163" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44645.44027777778</v>
       </c>
@@ -4675,10 +4675,10 @@
         <v>44645.395138888889</v>
       </c>
       <c r="C164" t="s">
+        <v>326</v>
+      </c>
+      <c r="D164" t="s">
         <v>327</v>
-      </c>
-      <c r="D164" t="s">
-        <v>328</v>
       </c>
       <c r="E164" s="1">
         <v>44645.4375</v>
@@ -4687,10 +4687,10 @@
         <v>44645.395833333336</v>
       </c>
       <c r="G164" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44648.585416666669</v>
       </c>
@@ -4698,10 +4698,10 @@
         <v>44648.554861111108</v>
       </c>
       <c r="C165" t="s">
+        <v>328</v>
+      </c>
+      <c r="D165" t="s">
         <v>329</v>
-      </c>
-      <c r="D165" t="s">
-        <v>330</v>
       </c>
       <c r="E165" s="1">
         <v>44648.583333333336</v>
@@ -4710,10 +4710,10 @@
         <v>44648.5625</v>
       </c>
       <c r="G165" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44649.513194444444</v>
       </c>
@@ -4721,10 +4721,10 @@
         <v>44649.460416666669</v>
       </c>
       <c r="C166" t="s">
+        <v>330</v>
+      </c>
+      <c r="D166" t="s">
         <v>331</v>
-      </c>
-      <c r="D166" t="s">
-        <v>332</v>
       </c>
       <c r="E166" s="1">
         <v>44649.520833333336</v>
@@ -4733,10 +4733,10 @@
         <v>44649.458333333336</v>
       </c>
       <c r="G166" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44649.573611111111</v>
       </c>
@@ -4744,10 +4744,10 @@
         <v>44649.554166666669</v>
       </c>
       <c r="C167" t="s">
+        <v>332</v>
+      </c>
+      <c r="D167" t="s">
         <v>333</v>
-      </c>
-      <c r="D167" t="s">
-        <v>334</v>
       </c>
       <c r="E167" s="1">
         <v>44649.583333333336</v>
@@ -4756,10 +4756,10 @@
         <v>44649.5625</v>
       </c>
       <c r="G167" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44645.418055555558</v>
       </c>
@@ -4767,10 +4767,10 @@
         <v>44645.356944444444</v>
       </c>
       <c r="C168" t="s">
+        <v>334</v>
+      </c>
+      <c r="D168" t="s">
         <v>335</v>
-      </c>
-      <c r="D168" t="s">
-        <v>336</v>
       </c>
       <c r="E168" s="1">
         <v>44645.416666666664</v>
@@ -4779,10 +4779,10 @@
         <v>44645.354166666664</v>
       </c>
       <c r="G168" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44645.720138888886</v>
       </c>
@@ -4790,10 +4790,10 @@
         <v>44645.70208333333</v>
       </c>
       <c r="C169" t="s">
+        <v>336</v>
+      </c>
+      <c r="D169" t="s">
         <v>337</v>
-      </c>
-      <c r="D169" t="s">
-        <v>338</v>
       </c>
       <c r="E169" s="1">
         <v>44645.729166666664</v>
@@ -4802,10 +4802,10 @@
         <v>44645.708333333336</v>
       </c>
       <c r="G169" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44649.750694444447</v>
       </c>
@@ -4813,10 +4813,10 @@
         <v>44649.718055555553</v>
       </c>
       <c r="C170" t="s">
+        <v>338</v>
+      </c>
+      <c r="D170" t="s">
         <v>339</v>
-      </c>
-      <c r="D170" t="s">
-        <v>340</v>
       </c>
       <c r="E170" s="1">
         <v>44649.75</v>
@@ -4825,10 +4825,10 @@
         <v>44649.708333333336</v>
       </c>
       <c r="G170" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44643.369444444441</v>
       </c>
@@ -4836,10 +4836,10 @@
         <v>44643.351388888892</v>
       </c>
       <c r="C171" t="s">
+        <v>340</v>
+      </c>
+      <c r="D171" t="s">
         <v>341</v>
-      </c>
-      <c r="D171" t="s">
-        <v>342</v>
       </c>
       <c r="E171" s="1">
         <v>44643.375</v>
@@ -4848,10 +4848,10 @@
         <v>44643.354166666664</v>
       </c>
       <c r="G171" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44645.798611111109</v>
       </c>
@@ -4859,10 +4859,10 @@
         <v>44645.740972222222</v>
       </c>
       <c r="C172" t="s">
+        <v>342</v>
+      </c>
+      <c r="D172" t="s">
         <v>343</v>
-      </c>
-      <c r="D172" t="s">
-        <v>344</v>
       </c>
       <c r="E172" s="1">
         <v>44645.791666666664</v>
@@ -4871,10 +4871,10 @@
         <v>44645.75</v>
       </c>
       <c r="G172" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44645.677083333336</v>
       </c>
@@ -4882,10 +4882,10 @@
         <v>44645.637499999997</v>
       </c>
       <c r="C173" t="s">
+        <v>344</v>
+      </c>
+      <c r="D173" t="s">
         <v>345</v>
-      </c>
-      <c r="D173" t="s">
-        <v>346</v>
       </c>
       <c r="E173" s="1">
         <v>44645.6875</v>
@@ -4894,10 +4894,10 @@
         <v>44645.645833333336</v>
       </c>
       <c r="G173" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44648.490277777775</v>
       </c>
@@ -4905,10 +4905,10 @@
         <v>44648.451388888891</v>
       </c>
       <c r="C174" t="s">
+        <v>346</v>
+      </c>
+      <c r="D174" t="s">
         <v>347</v>
-      </c>
-      <c r="D174" t="s">
-        <v>348</v>
       </c>
       <c r="E174" s="1">
         <v>44648.5</v>
@@ -4917,10 +4917,10 @@
         <v>44648.458333333336</v>
       </c>
       <c r="G174" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44644.542361111111</v>
       </c>
@@ -4928,10 +4928,10 @@
         <v>44644.494444444441</v>
       </c>
       <c r="C175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D175" t="s">
         <v>349</v>
-      </c>
-      <c r="D175" t="s">
-        <v>350</v>
       </c>
       <c r="E175" s="1">
         <v>44644.541666666664</v>
@@ -4940,10 +4940,10 @@
         <v>44644.5</v>
       </c>
       <c r="G175" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44644.490277777775</v>
       </c>
@@ -4951,10 +4951,10 @@
         <v>44644.484722222223</v>
       </c>
       <c r="C176" t="s">
+        <v>350</v>
+      </c>
+      <c r="D176" t="s">
         <v>351</v>
-      </c>
-      <c r="D176" t="s">
-        <v>352</v>
       </c>
       <c r="E176" s="1">
         <v>44644.5</v>
@@ -4963,10 +4963,10 @@
         <v>44644.479166666664</v>
       </c>
       <c r="G176" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44648.536111111112</v>
       </c>
@@ -4974,10 +4974,10 @@
         <v>44648.507638888892</v>
       </c>
       <c r="C177" t="s">
+        <v>352</v>
+      </c>
+      <c r="D177" t="s">
         <v>353</v>
-      </c>
-      <c r="D177" t="s">
-        <v>354</v>
       </c>
       <c r="E177" s="1">
         <v>44648.541666666664</v>
@@ -4986,10 +4986,10 @@
         <v>44648.5</v>
       </c>
       <c r="G177" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44649.734722222223</v>
       </c>
@@ -4997,10 +4997,10 @@
         <v>44649.708333333336</v>
       </c>
       <c r="C178" t="s">
+        <v>354</v>
+      </c>
+      <c r="D178" t="s">
         <v>355</v>
-      </c>
-      <c r="D178" t="s">
-        <v>356</v>
       </c>
       <c r="E178" s="1">
         <v>44649.729166666664</v>
@@ -5009,10 +5009,10 @@
         <v>44649.708333333336</v>
       </c>
       <c r="G178" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44642.785416666666</v>
       </c>
@@ -5020,10 +5020,10 @@
         <v>44642.740277777775</v>
       </c>
       <c r="C179" t="s">
+        <v>356</v>
+      </c>
+      <c r="D179" t="s">
         <v>357</v>
-      </c>
-      <c r="D179" t="s">
-        <v>358</v>
       </c>
       <c r="E179" s="1">
         <v>44642.791666666664</v>
@@ -5032,10 +5032,10 @@
         <v>44642.75</v>
       </c>
       <c r="G179" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44643.614583333336</v>
       </c>
@@ -5043,10 +5043,10 @@
         <v>44643.584027777775</v>
       </c>
       <c r="C180" t="s">
+        <v>358</v>
+      </c>
+      <c r="D180" t="s">
         <v>359</v>
-      </c>
-      <c r="D180" t="s">
-        <v>360</v>
       </c>
       <c r="E180" s="1">
         <v>44643.625</v>
@@ -5055,10 +5055,10 @@
         <v>44643.583333333336</v>
       </c>
       <c r="G180" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44641.675000000003</v>
       </c>
@@ -5066,10 +5066,10 @@
         <v>44641.604166666664</v>
       </c>
       <c r="C181" t="s">
+        <v>360</v>
+      </c>
+      <c r="D181" t="s">
         <v>361</v>
-      </c>
-      <c r="D181" t="s">
-        <v>362</v>
       </c>
       <c r="E181" s="1">
         <v>44641.666666666664</v>
@@ -5078,10 +5078,10 @@
         <v>44641.604166666664</v>
       </c>
       <c r="G181" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44641.695138888892</v>
       </c>
@@ -5089,10 +5089,10 @@
         <v>44641.676388888889</v>
       </c>
       <c r="C182" t="s">
+        <v>362</v>
+      </c>
+      <c r="D182" t="s">
         <v>363</v>
-      </c>
-      <c r="D182" t="s">
-        <v>364</v>
       </c>
       <c r="E182" s="1">
         <v>44641.6875</v>
@@ -5101,10 +5101,10 @@
         <v>44641.666666666664</v>
       </c>
       <c r="G182" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44644.773611111108</v>
       </c>
@@ -5112,10 +5112,10 @@
         <v>44644.746527777781</v>
       </c>
       <c r="C183" t="s">
+        <v>364</v>
+      </c>
+      <c r="D183" t="s">
         <v>365</v>
-      </c>
-      <c r="D183" t="s">
-        <v>366</v>
       </c>
       <c r="E183" s="1">
         <v>44644.770833333336</v>
@@ -5124,10 +5124,10 @@
         <v>44644.75</v>
       </c>
       <c r="G183" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44643.53125</v>
       </c>
@@ -5135,10 +5135,10 @@
         <v>44643.479861111111</v>
       </c>
       <c r="C184" t="s">
+        <v>366</v>
+      </c>
+      <c r="D184" t="s">
         <v>367</v>
-      </c>
-      <c r="D184" t="s">
-        <v>368</v>
       </c>
       <c r="E184" s="1">
         <v>44643.541666666664</v>
@@ -5147,10 +5147,10 @@
         <v>44643.479166666664</v>
       </c>
       <c r="G184" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44641.42291666667</v>
       </c>
@@ -5158,10 +5158,10 @@
         <v>44641.401388888888</v>
       </c>
       <c r="C185" t="s">
+        <v>368</v>
+      </c>
+      <c r="D185" t="s">
         <v>369</v>
-      </c>
-      <c r="D185" t="s">
-        <v>370</v>
       </c>
       <c r="E185" s="1">
         <v>44641.416666666664</v>
@@ -5170,10 +5170,10 @@
         <v>44641.395833333336</v>
       </c>
       <c r="G185" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44638.773611111108</v>
       </c>
@@ -5181,10 +5181,10 @@
         <v>44638.748611111114</v>
       </c>
       <c r="C186" t="s">
+        <v>370</v>
+      </c>
+      <c r="D186" t="s">
         <v>371</v>
-      </c>
-      <c r="D186" t="s">
-        <v>372</v>
       </c>
       <c r="E186" s="1">
         <v>44638.770833333336</v>
@@ -5193,10 +5193,10 @@
         <v>44638.75</v>
       </c>
       <c r="G186" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44642.42083333333</v>
       </c>
@@ -5204,10 +5204,10 @@
         <v>44642.402083333334</v>
       </c>
       <c r="C187" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D187" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E187" s="1">
         <v>44642.416666666664</v>
@@ -5216,10 +5216,10 @@
         <v>44642.395833333336</v>
       </c>
       <c r="G187" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44642.522916666669</v>
       </c>
@@ -5227,10 +5227,10 @@
         <v>44642.470833333333</v>
       </c>
       <c r="C188" t="s">
+        <v>373</v>
+      </c>
+      <c r="D188" t="s">
         <v>374</v>
-      </c>
-      <c r="D188" t="s">
-        <v>375</v>
       </c>
       <c r="E188" s="1">
         <v>44642.520833333336</v>
@@ -5239,10 +5239,10 @@
         <v>44642.479166666664</v>
       </c>
       <c r="G188" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44638.681250000001</v>
       </c>
@@ -5250,10 +5250,10 @@
         <v>44638.665277777778</v>
       </c>
       <c r="C189" t="s">
+        <v>375</v>
+      </c>
+      <c r="D189" t="s">
         <v>376</v>
-      </c>
-      <c r="D189" t="s">
-        <v>377</v>
       </c>
       <c r="E189" s="1">
         <v>44638.6875</v>
@@ -5262,10 +5262,10 @@
         <v>44638.666666666664</v>
       </c>
       <c r="G189" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44637.51458333333</v>
       </c>
@@ -5273,10 +5273,10 @@
         <v>44637.457638888889</v>
       </c>
       <c r="C190" t="s">
+        <v>377</v>
+      </c>
+      <c r="D190" t="s">
         <v>378</v>
-      </c>
-      <c r="D190" t="s">
-        <v>379</v>
       </c>
       <c r="E190" s="1">
         <v>44637.520833333336</v>
@@ -5285,10 +5285,10 @@
         <v>44637.458333333336</v>
       </c>
       <c r="G190" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44642.400000000001</v>
       </c>
@@ -5296,10 +5296,10 @@
         <v>44642.322916666664</v>
       </c>
       <c r="C191" t="s">
+        <v>379</v>
+      </c>
+      <c r="D191" t="s">
         <v>380</v>
-      </c>
-      <c r="D191" t="s">
-        <v>381</v>
       </c>
       <c r="E191" s="1">
         <v>44642.395833333336</v>
@@ -5308,10 +5308,10 @@
         <v>44642.333333333336</v>
       </c>
       <c r="G191" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44638.39166666667</v>
       </c>
@@ -5319,10 +5319,10 @@
         <v>44638.32916666667</v>
       </c>
       <c r="C192" t="s">
+        <v>381</v>
+      </c>
+      <c r="D192" t="s">
         <v>382</v>
-      </c>
-      <c r="D192" t="s">
-        <v>383</v>
       </c>
       <c r="E192" s="1">
         <v>44638.395833333336</v>
@@ -5331,10 +5331,10 @@
         <v>44638.333333333336</v>
       </c>
       <c r="G192" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44642.585416666669</v>
       </c>
@@ -5342,10 +5342,10 @@
         <v>44642.557638888888</v>
       </c>
       <c r="C193" t="s">
+        <v>383</v>
+      </c>
+      <c r="D193" t="s">
         <v>384</v>
-      </c>
-      <c r="D193" t="s">
-        <v>385</v>
       </c>
       <c r="E193" s="1">
         <v>44642.583333333336</v>
@@ -5354,10 +5354,10 @@
         <v>44642.5625</v>
       </c>
       <c r="G193" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44642.438194444447</v>
       </c>
@@ -5365,10 +5365,10 @@
         <v>44642.40625</v>
       </c>
       <c r="C194" t="s">
+        <v>385</v>
+      </c>
+      <c r="D194" t="s">
         <v>386</v>
-      </c>
-      <c r="D194" t="s">
-        <v>387</v>
       </c>
       <c r="E194" s="1">
         <v>44642.4375</v>
@@ -5377,10 +5377,10 @@
         <v>44642.395833333336</v>
       </c>
       <c r="G194" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44637.509027777778</v>
       </c>
@@ -5388,10 +5388,10 @@
         <v>44637.428472222222</v>
       </c>
       <c r="C195" t="s">
+        <v>387</v>
+      </c>
+      <c r="D195" t="s">
         <v>388</v>
-      </c>
-      <c r="D195" t="s">
-        <v>389</v>
       </c>
       <c r="E195" s="1">
         <v>44637.5</v>
@@ -5400,10 +5400,10 @@
         <v>44637.4375</v>
       </c>
       <c r="G195" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44637.426388888889</v>
       </c>
@@ -5411,10 +5411,10 @@
         <v>44637.378472222219</v>
       </c>
       <c r="C196" t="s">
+        <v>389</v>
+      </c>
+      <c r="D196" t="s">
         <v>390</v>
-      </c>
-      <c r="D196" t="s">
-        <v>391</v>
       </c>
       <c r="E196" s="1">
         <v>44637.416666666664</v>
@@ -5423,10 +5423,10 @@
         <v>44637.375</v>
       </c>
       <c r="G196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44634.541666666664</v>
       </c>
@@ -5434,10 +5434,10 @@
         <v>44634.522916666669</v>
       </c>
       <c r="C197" t="s">
+        <v>391</v>
+      </c>
+      <c r="D197" t="s">
         <v>392</v>
-      </c>
-      <c r="D197" t="s">
-        <v>393</v>
       </c>
       <c r="E197" s="1">
         <v>44634.541666666664</v>
@@ -5446,10 +5446,10 @@
         <v>44634.520833333336</v>
       </c>
       <c r="G197" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44636.51458333333</v>
       </c>
@@ -5457,10 +5457,10 @@
         <v>44636.506944444445</v>
       </c>
       <c r="C198" t="s">
+        <v>393</v>
+      </c>
+      <c r="D198" t="s">
         <v>394</v>
-      </c>
-      <c r="D198" t="s">
-        <v>395</v>
       </c>
       <c r="E198" s="1">
         <v>44636.520833333336</v>
@@ -5469,10 +5469,10 @@
         <v>44636.5</v>
       </c>
       <c r="G198" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44637.737500000003</v>
       </c>
@@ -5480,10 +5480,10 @@
         <v>44637.675000000003</v>
       </c>
       <c r="C199" t="s">
+        <v>395</v>
+      </c>
+      <c r="D199" t="s">
         <v>396</v>
-      </c>
-      <c r="D199" t="s">
-        <v>397</v>
       </c>
       <c r="E199" s="1">
         <v>44637.729166666664</v>
@@ -5492,10 +5492,10 @@
         <v>44637.666666666664</v>
       </c>
       <c r="G199" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44637.619444444441</v>
       </c>
@@ -5503,10 +5503,10 @@
         <v>44637.560416666667</v>
       </c>
       <c r="C200" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" t="s">
         <v>398</v>
-      </c>
-      <c r="D200" t="s">
-        <v>399</v>
       </c>
       <c r="E200" s="1">
         <v>44637.625</v>
@@ -5515,10 +5515,10 @@
         <v>44637.5625</v>
       </c>
       <c r="G200" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44636.518055555556</v>
       </c>
@@ -5526,10 +5526,10 @@
         <v>44636.502083333333</v>
       </c>
       <c r="C201" t="s">
+        <v>399</v>
+      </c>
+      <c r="D201" t="s">
         <v>400</v>
-      </c>
-      <c r="D201" t="s">
-        <v>401</v>
       </c>
       <c r="E201" s="1">
         <v>44636.520833333336</v>
@@ -5538,10 +5538,10 @@
         <v>44636.5</v>
       </c>
       <c r="G201" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44637.543055555558</v>
       </c>
@@ -5549,10 +5549,10 @@
         <v>44637.486111111109</v>
       </c>
       <c r="C202" t="s">
+        <v>401</v>
+      </c>
+      <c r="D202" t="s">
         <v>402</v>
-      </c>
-      <c r="D202" t="s">
-        <v>403</v>
       </c>
       <c r="E202" s="1">
         <v>44637.541666666664</v>
@@ -5561,10 +5561,10 @@
         <v>44637.479166666664</v>
       </c>
       <c r="G202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44635.674305555556</v>
       </c>
@@ -5572,10 +5572,10 @@
         <v>44635.613888888889</v>
       </c>
       <c r="C203" t="s">
+        <v>403</v>
+      </c>
+      <c r="D203" t="s">
         <v>404</v>
-      </c>
-      <c r="D203" t="s">
-        <v>405</v>
       </c>
       <c r="E203" s="1">
         <v>44635.666666666664</v>
@@ -5584,10 +5584,10 @@
         <v>44635.625</v>
       </c>
       <c r="G203" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44636.685416666667</v>
       </c>
@@ -5595,10 +5595,10 @@
         <v>44636.638194444444</v>
       </c>
       <c r="C204" t="s">
+        <v>405</v>
+      </c>
+      <c r="D204" t="s">
         <v>406</v>
-      </c>
-      <c r="D204" t="s">
-        <v>407</v>
       </c>
       <c r="E204" s="1">
         <v>44636.6875</v>
@@ -5607,10 +5607,10 @@
         <v>44636.645833333336</v>
       </c>
       <c r="G204" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44636.602777777778</v>
       </c>
@@ -5618,10 +5618,10 @@
         <v>44636.57708333333</v>
       </c>
       <c r="C205" t="s">
+        <v>407</v>
+      </c>
+      <c r="D205" t="s">
         <v>408</v>
-      </c>
-      <c r="D205" t="s">
-        <v>409</v>
       </c>
       <c r="E205" s="1">
         <v>44636.604166666664</v>
@@ -5630,10 +5630,10 @@
         <v>44636.583333333336</v>
       </c>
       <c r="G205" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44634.5625</v>
       </c>
@@ -5641,10 +5641,10 @@
         <v>44634.5</v>
       </c>
       <c r="C206" t="s">
+        <v>409</v>
+      </c>
+      <c r="D206" t="s">
         <v>410</v>
-      </c>
-      <c r="D206" t="s">
-        <v>411</v>
       </c>
       <c r="E206" s="1">
         <v>44634.5625</v>
@@ -5653,10 +5653,10 @@
         <v>44634.5</v>
       </c>
       <c r="G206" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44636.730555555558</v>
       </c>
@@ -5664,10 +5664,10 @@
         <v>44636.697916666664</v>
       </c>
       <c r="C207" t="s">
+        <v>411</v>
+      </c>
+      <c r="D207" t="s">
         <v>412</v>
-      </c>
-      <c r="D207" t="s">
-        <v>413</v>
       </c>
       <c r="E207" s="1">
         <v>44636.729166666664</v>
@@ -5676,10 +5676,10 @@
         <v>44636.6875</v>
       </c>
       <c r="G207" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44634.725694444445</v>
       </c>
@@ -5687,10 +5687,10 @@
         <v>44634.64166666667</v>
       </c>
       <c r="C208" t="s">
+        <v>413</v>
+      </c>
+      <c r="D208" t="s">
         <v>414</v>
-      </c>
-      <c r="D208" t="s">
-        <v>415</v>
       </c>
       <c r="E208" s="1">
         <v>44634.708333333336</v>
@@ -5699,10 +5699,10 @@
         <v>44634.645833333336</v>
       </c>
       <c r="G208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44634.573611111111</v>
       </c>
@@ -5710,10 +5710,10 @@
         <v>44634.548611111109</v>
       </c>
       <c r="C209" t="s">
+        <v>415</v>
+      </c>
+      <c r="D209" t="s">
         <v>416</v>
-      </c>
-      <c r="D209" t="s">
-        <v>417</v>
       </c>
       <c r="E209" s="1">
         <v>44634.5625</v>
@@ -5722,10 +5722,10 @@
         <v>44634.541666666664</v>
       </c>
       <c r="G209" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44634.681944444441</v>
       </c>
@@ -5733,10 +5733,10 @@
         <v>44634.647916666669</v>
       </c>
       <c r="C210" t="s">
+        <v>417</v>
+      </c>
+      <c r="D210" t="s">
         <v>418</v>
-      </c>
-      <c r="D210" t="s">
-        <v>419</v>
       </c>
       <c r="E210" s="1">
         <v>44634.6875</v>
@@ -5745,10 +5745,10 @@
         <v>44634.645833333336</v>
       </c>
       <c r="G210" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44636.572222222225</v>
       </c>
@@ -5756,10 +5756,10 @@
         <v>44636.551388888889</v>
       </c>
       <c r="C211" t="s">
+        <v>419</v>
+      </c>
+      <c r="D211" t="s">
         <v>420</v>
-      </c>
-      <c r="D211" t="s">
-        <v>421</v>
       </c>
       <c r="E211" s="1">
         <v>44636.5625</v>
@@ -5768,10 +5768,10 @@
         <v>44636.541666666664</v>
       </c>
       <c r="G211" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44634.590277777781</v>
       </c>
@@ -5779,10 +5779,10 @@
         <v>44634.539583333331</v>
       </c>
       <c r="C212" t="s">
+        <v>421</v>
+      </c>
+      <c r="D212" t="s">
         <v>422</v>
-      </c>
-      <c r="D212" t="s">
-        <v>423</v>
       </c>
       <c r="E212" s="1">
         <v>44634.583333333336</v>
@@ -5791,18 +5791,18 @@
         <v>44634.541666666664</v>
       </c>
       <c r="G212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B213" s="1">
         <v>44666.802083333336</v>
       </c>
       <c r="C213" t="s">
+        <v>423</v>
+      </c>
+      <c r="D213" t="s">
         <v>424</v>
-      </c>
-      <c r="D213" t="s">
-        <v>425</v>
       </c>
       <c r="E213" s="1">
         <v>44666.864583333336</v>
@@ -5811,18 +5811,18 @@
         <v>44666.802083333336</v>
       </c>
       <c r="G213" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B214" s="1">
         <v>44666.82708333333</v>
       </c>
       <c r="C214" t="s">
+        <v>425</v>
+      </c>
+      <c r="D214" t="s">
         <v>426</v>
-      </c>
-      <c r="D214" t="s">
-        <v>427</v>
       </c>
       <c r="E214" s="1">
         <v>44666.864583333336</v>
@@ -5831,18 +5831,18 @@
         <v>44666.822916666664</v>
       </c>
       <c r="G214" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B215" s="1">
         <v>44666.800694444442</v>
       </c>
       <c r="C215" t="s">
+        <v>427</v>
+      </c>
+      <c r="D215" t="s">
         <v>428</v>
-      </c>
-      <c r="D215" t="s">
-        <v>429</v>
       </c>
       <c r="E215" s="1">
         <v>44666.864583333336</v>
@@ -5851,18 +5851,18 @@
         <v>44666.802083333336</v>
       </c>
       <c r="G215" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B216" s="1">
         <v>44666.838194444441</v>
       </c>
       <c r="C216" t="s">
+        <v>429</v>
+      </c>
+      <c r="D216" t="s">
         <v>430</v>
-      </c>
-      <c r="D216" t="s">
-        <v>431</v>
       </c>
       <c r="E216" s="1">
         <v>44666.864583333336</v>
@@ -5871,7 +5871,7 @@
         <v>44666.84375</v>
       </c>
       <c r="G216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5880,26 +5880,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0fc8fdbe-63ee-4f69-b313-2b5d739d1621">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100624AE64143D4054589D1815EDB630A7D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f6de84e9314eda93cef639727046f4cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fc8fdbe-63ee-4f69-b313-2b5d739d1621" xmlns:ns3="230e9df3-be65-4c73-a93b-d1236ebd677e" xmlns:ns4="82b6d5e4-9804-4ef5-a866-b52b972ac881" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3eea17ca9f6b21cfe63cf6e181697c97" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="0fc8fdbe-63ee-4f69-b313-2b5d739d1621"/>
@@ -6129,14 +6109,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0fc8fdbe-63ee-4f69-b313-2b5d739d1621">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B11F862-09D3-4216-BDBC-F432333AB91D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1633497-F381-45F6-9E4D-D2BA21DC0B42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fc8fdbe-63ee-4f69-b313-2b5d739d1621"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="82b6d5e4-9804-4ef5-a866-b52b972ac881"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7FE83F7-F300-4896-8A06-0F60D593375C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7FE83F7-F300-4896-8A06-0F60D593375C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1633497-F381-45F6-9E4D-D2BA21DC0B42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B11F862-09D3-4216-BDBC-F432333AB91D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="0fc8fdbe-63ee-4f69-b313-2b5d739d1621"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>